--- a/data/trans_camb/P75-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P75-Habitat-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 8,83</t>
+          <t>-14,45; 8,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 2,51</t>
+          <t>-20,52; 2,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 2,37</t>
+          <t>-13,62; 1,97</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,28; 53,49</t>
+          <t>-47,09; 42,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,15; 13,64</t>
+          <t>-59,41; 10,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 11,96</t>
+          <t>-44,51; 8,43</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,38; -13,21</t>
+          <t>-22,76; -12,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,39; -13,1</t>
+          <t>-23,69; -13,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; -14,99</t>
+          <t>-21,86; -14,6</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,49; -42,98</t>
+          <t>-63,37; -42,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,22; -39,82</t>
+          <t>-60,21; -40,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,21; -44,94</t>
+          <t>-59,35; -44,04</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,42; -9,45</t>
+          <t>-17,52; -9,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -13,18</t>
+          <t>-21,71; -13,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,47; -12,53</t>
+          <t>-18,27; -12,69</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,35; -29,66</t>
+          <t>-48,27; -29,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,73; -36,18</t>
+          <t>-53,24; -36,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,85; -36,34</t>
+          <t>-48,33; -36,48</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -11,22</t>
+          <t>-18,83; -11,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,11; -9,11</t>
+          <t>-15,78; -8,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,23; -11,07</t>
+          <t>-16,37; -11,18</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,94; -56,9</t>
+          <t>-75,83; -57,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,77; -47,86</t>
+          <t>-69,99; -46,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,45; -55,7</t>
+          <t>-70,95; -56,27</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -2,68</t>
+          <t>-9,31; -2,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 0,1</t>
+          <t>-6,21; 0,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -2,31</t>
+          <t>-6,76; -2,37</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,87; -17,68</t>
+          <t>-48,76; -17,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 1,12</t>
+          <t>-38,41; 0,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,22; -15,25</t>
+          <t>-39,84; -16,38</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -10,25</t>
+          <t>-14,21; -10,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -10,05</t>
+          <t>-13,94; -10,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -10,76</t>
+          <t>-13,43; -10,7</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-51,45; -40,74</t>
+          <t>-51,48; -40,38</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,97; -38,87</t>
+          <t>-49,74; -38,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-49,19; -41,74</t>
+          <t>-49,01; -41,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P75-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P75-Habitat-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 8,17</t>
+          <t>-12,94; 8,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 2,3</t>
+          <t>-21,53; 2,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 1,97</t>
+          <t>-13,72; 2,3</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 42,89</t>
+          <t>-43,15; 44,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-59,41; 10,92</t>
+          <t>-59,25; 13,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 8,43</t>
+          <t>-44,95; 11,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -12,89</t>
+          <t>-23,12; -13,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,69; -13,28</t>
+          <t>-23,32; -12,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,86; -14,6</t>
+          <t>-21,67; -14,8</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,37; -42,19</t>
+          <t>-64,36; -43,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,21; -40,02</t>
+          <t>-60,02; -39,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,35; -44,04</t>
+          <t>-58,6; -44,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -9,03</t>
+          <t>-17,65; -9,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -13,38</t>
+          <t>-21,76; -13,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,27; -12,69</t>
+          <t>-18,53; -12,94</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,27; -29,16</t>
+          <t>-48,7; -30,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,24; -36,44</t>
+          <t>-53,04; -36,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,33; -36,48</t>
+          <t>-48,56; -36,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,83; -11,5</t>
+          <t>-18,83; -11,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,78; -8,65</t>
+          <t>-16,13; -8,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,37; -11,18</t>
+          <t>-16,53; -11,11</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,83; -57,26</t>
+          <t>-76,86; -55,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,99; -46,87</t>
+          <t>-69,94; -46,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,95; -56,27</t>
+          <t>-70,74; -54,91</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,63</t>
+          <t>-9,29; -2,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 0,09</t>
+          <t>-6,22; 0,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,76; -2,37</t>
+          <t>-6,66; -2,28</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,76; -17,05</t>
+          <t>-49,34; -17,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 0,65</t>
+          <t>-38,18; 0,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-39,84; -16,38</t>
+          <t>-39,77; -15,39</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -10,18</t>
+          <t>-14,2; -10,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -10,08</t>
+          <t>-13,93; -10,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,43; -10,7</t>
+          <t>-13,64; -10,86</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-51,48; -40,38</t>
+          <t>-51,37; -40,38</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,74; -38,89</t>
+          <t>-50,15; -39,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-49,01; -41,47</t>
+          <t>-49,55; -41,7</t>
         </is>
       </c>
     </row>
